--- a/db-maker/file.xlsx
+++ b/db-maker/file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Технології (діловодство в юридичній практиці) Скок А.О.</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">Іноземна мова Корнійчук Н.В. / Левандовська Л.Б.                                </t>
   </si>
   <si>
+    <t>Біологія та екологія Кикоть Л.М.</t>
+  </si>
+  <si>
     <t>Фізика і астрономія Товкан М.М.</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Іноземна мова Калініченко Н.Г. / Корнійчук Н.В</t>
   </si>
   <si>
-    <t xml:space="preserve">Юрилична деонтологія Сервецька Ю.В.                                      </t>
+    <t xml:space="preserve">Юридична деонтологія Сервецька Ю.В.                                      </t>
   </si>
 </sst>
 </file>
@@ -420,8 +423,8 @@
     <row r="1" ht="92.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="92.25" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -430,8 +433,8 @@
       <c r="B2" s="2">
         <v>406.0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="92.25" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -440,10 +443,10 @@
       <c r="B3" s="2">
         <v>402.0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -454,10 +457,10 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>306.0</v>
       </c>
     </row>
@@ -468,20 +471,20 @@
       <c r="B5" s="2">
         <v>408.0</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="91.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" ht="91.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" ht="91.5" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -490,8 +493,8 @@
       <c r="B8" s="2">
         <v>306.0</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" ht="91.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -500,20 +503,20 @@
       <c r="B9" s="2">
         <v>406.0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" ht="91.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" ht="91.5" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -522,32 +525,32 @@
       <c r="B11" s="2">
         <v>411.0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" ht="91.5" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" ht="91.5" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" ht="91.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -556,10 +559,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
         <v>411.0</v>
       </c>
     </row>
@@ -570,54 +573,54 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" ht="91.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
         <v>310.0</v>
       </c>
     </row>
     <row r="18" ht="91.5" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" ht="91.5" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" ht="91.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>405.0</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" ht="91.5" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="2">
         <v>405.0</v>
       </c>
     </row>
@@ -628,46 +631,46 @@
       <c r="B22" s="2">
         <v>301.0</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2">
         <v>307.0</v>
       </c>
     </row>
     <row r="23" ht="91.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>310.0</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" ht="91.5" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>405.0</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
         <v>310.0</v>
       </c>
     </row>
     <row r="25" ht="91.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" ht="91.5" customHeight="1">
       <c r="A26" s="3" t="s">
@@ -676,50 +679,50 @@
       <c r="B26" s="2">
         <v>408.0</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" ht="91.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2">
         <v>403.0</v>
       </c>
     </row>
     <row r="28" ht="91.5" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D28" s="2">
         <v>301.0</v>
       </c>
     </row>
     <row r="29" ht="91.5" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="2"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D29" s="2">
         <v>306.0</v>
       </c>
     </row>
     <row r="30" ht="91.5" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="2"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D30" s="2">
         <v>301.0</v>
       </c>
     </row>

--- a/db-maker/file.xlsx
+++ b/db-maker/file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="93">
   <si>
     <t>КП-21</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Технології (технологія галузі)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Інформатика (комп'ютерні технології в юридичній діяльності)  (2 підгрупа)</t>
@@ -1149,9 +1146,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
@@ -1172,7 +1167,7 @@
       <c r="B8" s="20"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>44</v>
@@ -1198,7 +1193,7 @@
     </row>
     <row r="9" ht="91.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>40</v>
@@ -1207,10 +1202,10 @@
         <v>306.0</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -1231,10 +1226,10 @@
     </row>
     <row r="10" ht="91.5" customHeight="1">
       <c r="A10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="6">
         <v>406.0</v>
@@ -1258,28 +1253,28 @@
         <v>16</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="L10" s="6">
         <v>403.0</v>
       </c>
       <c r="M10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="O10" s="6">
         <v>307.0</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="7" t="s">
@@ -1301,7 +1296,7 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>40</v>
@@ -1310,10 +1305,10 @@
         <v>306.0</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
@@ -1338,14 +1333,14 @@
         <v>21</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U11" s="6"/>
     </row>
@@ -1388,10 +1383,10 @@
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="7" t="s">
@@ -1421,19 +1416,19 @@
         <v>405.0</v>
       </c>
       <c r="J13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="L13" s="16">
         <v>405.0</v>
       </c>
       <c r="M13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="O13" s="16">
         <v>405.0</v>
@@ -1489,10 +1484,10 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1508,17 +1503,17 @@
         <v>16</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>16</v>
@@ -1529,17 +1524,17 @@
     </row>
     <row r="16" ht="91.5" customHeight="1">
       <c r="A16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -1573,10 +1568,10 @@
         <v>411.0</v>
       </c>
       <c r="S16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="U16" s="6">
         <v>308.0</v>
@@ -1593,10 +1588,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
@@ -1627,26 +1622,26 @@
         <v>310.0</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="U17" s="6"/>
     </row>
     <row r="18" ht="91.5" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
@@ -1659,19 +1654,19 @@
         <v>408.0</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
@@ -1687,10 +1682,10 @@
         <v>310.0</v>
       </c>
       <c r="S18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="U18" s="6"/>
     </row>
@@ -1702,10 +1697,10 @@
       <c r="E19" s="18"/>
       <c r="F19" s="16"/>
       <c r="G19" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>11</v>
@@ -1720,7 +1715,7 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="16"/>
       <c r="S19" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T19" s="22" t="s">
         <v>25</v>
@@ -1754,46 +1749,46 @@
     </row>
     <row r="21" ht="91.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6">
         <v>405.0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="6">
         <v>405.0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="6">
         <v>405.0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="6">
         <v>405.0</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O21" s="6">
         <v>405.0</v>
@@ -1807,10 +1802,10 @@
     </row>
     <row r="22" ht="91.5" customHeight="1">
       <c r="A22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
@@ -1823,16 +1818,16 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="I22" s="6">
         <v>406.0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>40</v>
@@ -1850,19 +1845,19 @@
         <v>402.0</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R22" s="6">
         <v>405.0</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U22" s="6">
         <v>405.0</v>
@@ -1870,10 +1865,10 @@
     </row>
     <row r="23" ht="91.5" customHeight="1">
       <c r="A23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C23" s="6">
         <v>301.0</v>
@@ -1897,7 +1892,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>37</v>
@@ -1906,7 +1901,7 @@
         <v>309.0</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>18</v>
@@ -1916,7 +1911,7 @@
         <v>41</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R23" s="6">
         <v>307.0</v>
@@ -1942,16 +1937,16 @@
         <v>310.0</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F24" s="6">
         <v>301.0</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>20</v>
@@ -1960,24 +1955,24 @@
         <v>308.0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R24" s="6" t="s">
         <v>16</v>
@@ -1994,28 +1989,28 @@
     </row>
     <row r="25" ht="91.5" customHeight="1">
       <c r="A25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="C25" s="16">
         <v>405.0</v>
       </c>
       <c r="D25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="F25" s="16">
         <v>405.0</v>
       </c>
       <c r="G25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>61</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>62</v>
       </c>
       <c r="I25" s="16">
         <v>405.0</v>
@@ -2027,7 +2022,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="16"/>
       <c r="P25" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="22" t="s">
         <v>25</v>
@@ -2059,10 +2054,10 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="6"/>
       <c r="S26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="U26" s="6"/>
     </row>
@@ -2077,27 +2072,27 @@
         <v>408.0</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
       <c r="K27" s="10"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="O27" s="6">
         <v>310.0</v>
@@ -2106,30 +2101,30 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="6"/>
       <c r="S27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T27" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="U27" s="6"/>
     </row>
     <row r="28" ht="91.5" customHeight="1">
       <c r="A28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>40</v>
@@ -2138,34 +2133,34 @@
         <v>306.0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="6">
         <v>310.0</v>
       </c>
       <c r="M28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="O28" s="6">
         <v>301.0</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R28" s="6">
         <v>403.0</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T28" s="11" t="s">
         <v>40</v>
@@ -2176,10 +2171,10 @@
     </row>
     <row r="29" ht="91.5" customHeight="1">
       <c r="A29" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>91</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="11" t="s">
@@ -2190,10 +2185,10 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I29" s="6">
         <v>310.0</v>
@@ -2208,7 +2203,7 @@
         <v>402.0</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>40</v>
@@ -2217,19 +2212,19 @@
         <v>306.0</v>
       </c>
       <c r="P29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="R29" s="6">
         <v>301.0</v>
       </c>
       <c r="S29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="U29" s="6">
         <v>310.0</v>
@@ -2240,35 +2235,35 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="31"/>
       <c r="H30" s="10"/>
       <c r="I30" s="6"/>
       <c r="J30" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" s="6">
         <v>309.0</v>
       </c>
       <c r="M30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="O30" s="6">
         <v>301.0</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>40</v>
@@ -2303,10 +2298,10 @@
       <c r="N31" s="10"/>
       <c r="O31" s="6"/>
       <c r="P31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="R31" s="6">
         <v>301.0</v>

--- a/db-maker/file.xlsx
+++ b/db-maker/file.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="109">
   <si>
     <t>КП-21</t>
   </si>
@@ -290,6 +291,54 @@
   </si>
   <si>
     <t>Етнографія та фольклор України</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інформатика (комп'ютерні технології в юридичній діяльності)  (1 підгрупа)                                         </t>
+  </si>
+  <si>
+    <t>Всесвітня історія</t>
+  </si>
+  <si>
+    <t>Розміщення продуктивних сил</t>
+  </si>
+  <si>
+    <t>Інформатика (комп'ютерні технології в юридичній діяльності) 2(підгрупа)</t>
+  </si>
+  <si>
+    <t>(дистанційно)</t>
+  </si>
+  <si>
+    <t>307 / 308</t>
+  </si>
+  <si>
+    <t>Інформатика (інформаційні системи і технології)</t>
+  </si>
+  <si>
+    <t>Інформатика (комп'ютерні технології в юридичній діяльності) (1 підгрупа)</t>
+  </si>
+  <si>
+    <t>Офісне програмне забезпечення (2підгрупа)</t>
+  </si>
+  <si>
+    <t>Іноземна мова (2 підгрупа)</t>
+  </si>
+  <si>
+    <t>Пандазі А.В.</t>
+  </si>
+  <si>
+    <t>Кузьмич О.В. (1підгрупа) / Кіндрат П.В.(2 підгрупа)</t>
+  </si>
+  <si>
+    <t>Юридична деонтологія (правознавство)</t>
+  </si>
+  <si>
+    <t>Калініченко Н.Г. / Корнійчук Н.В.</t>
+  </si>
+  <si>
+    <t>403 / 407</t>
+  </si>
+  <si>
+    <t>Офісне програмне забезпечення (1підгрупа)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +378,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border/>
     <border>
       <left style="thick">
@@ -528,6 +577,65 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -535,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -620,6 +728,30 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -629,6 +761,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -837,6 +973,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="21" width="41.63"/>
+    <col customWidth="1" min="25" max="41" width="29.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="92.25" customHeight="1">
@@ -2312,6 +2449,1523 @@
     </row>
     <row r="32" ht="91.5" customHeight="1"/>
     <row r="33" ht="91.5" customHeight="1"/>
+    <row r="35" ht="112.5" customHeight="1"/>
+    <row r="36" ht="112.5" customHeight="1"/>
+    <row r="37" ht="112.5" customHeight="1"/>
+    <row r="38" ht="112.5" customHeight="1"/>
+    <row r="39" ht="112.5" customHeight="1"/>
+    <row r="40" ht="112.5" customHeight="1"/>
+    <row r="41" ht="112.5" customHeight="1"/>
+    <row r="42" ht="112.5" customHeight="1"/>
+    <row r="43" ht="112.5" customHeight="1"/>
+    <row r="44" ht="112.5" customHeight="1"/>
+    <row r="45" ht="112.5" customHeight="1"/>
+    <row r="46" ht="112.5" customHeight="1"/>
+    <row r="47" ht="112.5" customHeight="1"/>
+    <row r="48" ht="112.5" customHeight="1"/>
+    <row r="49" ht="112.5" customHeight="1"/>
+    <row r="50" ht="112.5" customHeight="1"/>
+    <row r="51" ht="112.5" customHeight="1"/>
+    <row r="52" ht="112.5" customHeight="1"/>
+    <row r="53" ht="112.5" customHeight="1"/>
+    <row r="54" ht="112.5" customHeight="1"/>
+    <row r="55" ht="112.5" customHeight="1"/>
+    <row r="56" ht="112.5" customHeight="1"/>
+    <row r="57" ht="112.5" customHeight="1"/>
+    <row r="58" ht="112.5" customHeight="1"/>
+    <row r="59" ht="112.5" customHeight="1"/>
+    <row r="60" ht="112.5" customHeight="1"/>
+    <row r="61" ht="112.5" customHeight="1"/>
+    <row r="62" ht="112.5" customHeight="1"/>
+    <row r="63" ht="112.5" customHeight="1"/>
+    <row r="64" ht="112.5" customHeight="1"/>
+    <row r="65" ht="112.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="21" width="36.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="87.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" ht="87.0" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" ht="87.0" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6">
+        <v>408.0</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="6">
+        <v>411.0</v>
+      </c>
+    </row>
+    <row r="4" ht="87.0" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="33">
+        <v>405.0</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6">
+        <v>409.0</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="6">
+        <v>307.0</v>
+      </c>
+    </row>
+    <row r="5" ht="87.0" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="33">
+        <v>406.0</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="6">
+        <v>310.0</v>
+      </c>
+    </row>
+    <row r="6" ht="87.0" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6">
+        <v>408.0</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="6">
+        <v>310.0</v>
+      </c>
+    </row>
+    <row r="7" ht="87.0" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" ht="87.0" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="32"/>
+      <c r="O8" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" ht="87.0" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" ht="87.0" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6">
+        <v>308.0</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="6">
+        <v>402.0</v>
+      </c>
+    </row>
+    <row r="11" ht="87.0" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="6">
+        <v>403.0</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="6">
+        <v>405.0</v>
+      </c>
+    </row>
+    <row r="12" ht="87.0" customHeight="1">
+      <c r="A12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6">
+        <v>308.0</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" ht="87.0" customHeight="1">
+      <c r="A13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="16">
+        <v>405.0</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="16">
+        <v>405.0</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="16">
+        <v>405.0</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" ht="87.0" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U14" s="6">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="15" ht="87.0" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6">
+        <v>311.0</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6">
+        <v>408.0</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U15" s="6">
+        <v>405.0</v>
+      </c>
+    </row>
+    <row r="16" ht="87.0" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6">
+        <v>311.0</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="6">
+        <v>409.0</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="6">
+        <v>308.0</v>
+      </c>
+    </row>
+    <row r="17" ht="87.0" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="6">
+        <v>311.0</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="U17" s="6">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="18" ht="87.0" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="6">
+        <v>408.0</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="6">
+        <v>311.0</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="6">
+        <v>310.0</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="6">
+        <v>307.0</v>
+      </c>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" ht="87.0" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="16">
+        <v>405.0</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="16">
+        <v>405.0</v>
+      </c>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" ht="87.0" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" ht="87.0" customHeight="1">
+      <c r="A21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="6">
+        <v>311.0</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="32"/>
+      <c r="U21" s="6">
+        <v>403.0</v>
+      </c>
+    </row>
+    <row r="22" ht="87.0" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6">
+        <v>406.0</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" s="6">
+        <v>405.0</v>
+      </c>
+    </row>
+    <row r="23" ht="87.0" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="87.0" customHeight="1">
+      <c r="A24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="6">
+        <v>301.0</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="6">
+        <v>306.0</v>
+      </c>
+    </row>
+    <row r="25" ht="87.0" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" ht="87.0" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" ht="87.0" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="6">
+        <v>301.0</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="6">
+        <v>309.0</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="6">
+        <v>407.0</v>
+      </c>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" ht="87.0" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6">
+        <v>301.0</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="6">
+        <v>411.0</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="P28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U28" s="6">
+        <v>306.0</v>
+      </c>
+    </row>
+    <row r="29" ht="87.0" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="6">
+        <v>402.0</v>
+      </c>
+      <c r="P29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="U29" s="6">
+        <v>306.0</v>
+      </c>
+    </row>
+    <row r="30" ht="87.0" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="6">
+        <v>405.0</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="6">
+        <v>307.0</v>
+      </c>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" ht="87.0" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
